--- a/LIFFY/BOM.xlsx
+++ b/LIFFY/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm\Desktop\Diseño Mecatrónico\Liffy\LIFFY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F7D0ED-E64E-48CC-9D85-74AA4E975DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E7C431-B55C-4B7F-A5E8-1CBA3A12986F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="113">
   <si>
     <t>References</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>C3, C4, C5, C6, C7, C9, C10, C11, C15</t>
-  </si>
-  <si>
     <t>100n</t>
   </si>
   <si>
@@ -54,12 +51,6 @@
     <t>30p</t>
   </si>
   <si>
-    <t>C12, C13</t>
-  </si>
-  <si>
-    <t>1n</t>
-  </si>
-  <si>
     <t>C16, C17</t>
   </si>
   <si>
@@ -204,9 +195,6 @@
     <t>Potentiometer_Bourns_3296Y_Vertical</t>
   </si>
   <si>
-    <t>RV3, RV4</t>
-  </si>
-  <si>
     <t>Varistor_6V</t>
   </si>
   <si>
@@ -315,9 +303,6 @@
     <t>Program_Pins</t>
   </si>
   <si>
-    <t>PinHeader_1x04_P1.00mm_Vertical</t>
-  </si>
-  <si>
     <t>J16</t>
   </si>
   <si>
@@ -361,13 +346,31 @@
   </si>
   <si>
     <t>Part Number</t>
+  </si>
+  <si>
+    <t>C3, C4, C5, C6, C7, C9, C10, C11, C15, C18, C19</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>27n</t>
+  </si>
+  <si>
+    <t>L_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>RV3</t>
+  </si>
+  <si>
+    <t>PinHeader_1x04_P2.54mm_Vertical</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,6 +393,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -400,7 +411,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,12 +443,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -722,813 +739,813 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="68.85546875" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="63.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="71.140625" customWidth="1"/>
+    <col min="5" max="5" width="44" customWidth="1"/>
+    <col min="6" max="6" width="55.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="G6" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>4</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="2">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
         <v>13</v>
       </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="2">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="2">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="2">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="2">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="2">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="2">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="2">
-        <v>11</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="2">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="2">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="G16" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>14</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>34</v>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G17" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>15</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>37</v>
+      <c r="D18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G18" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>16</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="2">
-        <v>17</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="2">
-        <v>18</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="2">
-        <v>19</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="2">
-        <v>20</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="G23" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>21</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>54</v>
+      <c r="D24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G24" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>22</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>57</v>
+      <c r="D25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G25" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>23</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <v>25</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="2">
-        <v>24</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <v>26</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C28" s="2">
-        <v>25</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="1">
+        <v>27</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="2">
-        <v>26</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C31" s="1">
+        <v>28</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="E31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="2">
-        <v>27</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="F31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C31" s="2">
-        <v>28</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="F32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <v>30</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="2">
-        <v>29</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="F33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <v>31</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E34" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C33" s="2">
-        <v>30</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="F34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>32</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E35" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C34" s="2">
-        <v>31</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="F35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>33</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E36" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C35" s="2">
-        <v>32</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="F36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>34</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E37" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G35" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C36" s="2">
-        <v>33</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="F37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>35</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E38" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G36" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C37" s="2">
-        <v>34</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="F38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <v>36</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E39" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G37" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C38" s="2">
-        <v>35</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="F39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <v>37</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E40" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G38" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C39" s="2">
-        <v>36</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="F40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C41" s="1">
+        <v>38</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E41" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G39" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C40" s="2">
-        <v>37</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="F41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C42" s="1">
+        <v>39</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E42" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C41" s="2">
-        <v>38</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="F42" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C43" s="1">
+        <v>40</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E43" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G41" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C42" s="2">
-        <v>39</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="F43" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C44" s="1">
+        <v>41</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E44" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F44" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C45" s="1">
+        <v>42</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C43" s="2">
-        <v>40</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="E45" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C46" s="1">
+        <v>43</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G43" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C44" s="2">
-        <v>41</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="E46" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C47" s="1">
+        <v>44</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G44" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C45" s="2">
-        <v>42</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="E47" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F47" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C48" s="1">
+        <v>45</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G45" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C46" s="2">
-        <v>43</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="E48" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F48" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C49" s="1">
+        <v>46</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G46" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C47" s="2">
-        <v>44</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="E49" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G47" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C48" s="2">
-        <v>45</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G48" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C49" s="2">
-        <v>46</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
